--- a/src/main/java/com/aisha/DemoQASiteTestNG/testdata/webTableRetrieveData.xlsx
+++ b/src/main/java/com/aisha/DemoQASiteTestNG/testdata/webTableRetrieveData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Cierra</t>
   </si>
